--- a/docs/relay_count.xlsx
+++ b/docs/relay_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicsc\Documents\_projects\Clackertron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Documents\_projects\Clackertron\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4CC76-013E-43F8-8E48-5022C5C2269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389829E1-E98F-4D20-93E9-4816968F454D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
-  <si>
-    <t>Reg-GP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>DPDT</t>
   </si>
@@ -36,45 +33,24 @@
     <t>SPDT</t>
   </si>
   <si>
-    <t>INC+Carry</t>
-  </si>
-  <si>
     <t>INC</t>
   </si>
   <si>
-    <t>Half Adder</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>IO-Latch</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>OUT</t>
-  </si>
-  <si>
     <t>Relays</t>
   </si>
   <si>
-    <t>Full Adder</t>
-  </si>
-  <si>
     <t>Relay Type</t>
   </si>
   <si>
     <t>op. time [ms]</t>
   </si>
   <si>
-    <t>8+4</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -87,35 +63,83 @@
     <t>cc = carry in + carry out</t>
   </si>
   <si>
-    <t>rci, cc</t>
-  </si>
-  <si>
-    <t>4+16+4</t>
-  </si>
-  <si>
-    <t>EN+4, RST</t>
-  </si>
-  <si>
-    <t>rci+A+B, cc, OE+4, SUB</t>
-  </si>
-  <si>
-    <t>rci, carry out</t>
-  </si>
-  <si>
     <t>D-Latch</t>
   </si>
   <si>
-    <t>EN+4</t>
-  </si>
-  <si>
-    <t>1?</t>
+    <t>QPDT</t>
+  </si>
+  <si>
+    <t>D-Reg</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>DEMUX</t>
+  </si>
+  <si>
+    <t>INC/DEC</t>
+  </si>
+  <si>
+    <t>INC_PC</t>
+  </si>
+  <si>
+    <t>Half_ADD</t>
+  </si>
+  <si>
+    <t>Full_ADD</t>
+  </si>
+  <si>
+    <t>XOR_8</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>ALU</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>D-Reg-PG</t>
+  </si>
+  <si>
+    <t>Electro-Mechanical</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>italic mode == unsure/recheck</t>
+  </si>
+  <si>
+    <t>HIV design</t>
+  </si>
+  <si>
+    <t>fanout of bitwise &amp; is 1</t>
+  </si>
+  <si>
+    <t>ALU+REG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +155,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -148,19 +180,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -170,11 +318,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:K13"/>
+  <dimension ref="B4:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,207 +674,495 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.85546875" customWidth="1"/>
     <col min="5" max="5" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" style="2" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>2</v>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="24"/>
+      <c r="I5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>1</v>
+      <c r="I6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="23">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="23">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25">
+        <v>1</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="23">
+        <f>G7+8</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="9">
+        <f>H7</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <f>I7+8</f>
+        <v>8</v>
+      </c>
+      <c r="J10" s="26">
+        <f>J7</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="23">
+        <f>G10</f>
+        <v>12</v>
+      </c>
+      <c r="H11" s="9">
+        <f>H10+1</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
+        <f>I10</f>
+        <v>8</v>
+      </c>
+      <c r="J11" s="26">
+        <f>J10+1</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="23">
+        <f>8*G13</f>
+        <v>8</v>
+      </c>
+      <c r="H14" s="9">
+        <f>8*H13</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f>8*I13</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" ref="I14:J14" si="0">8*J13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="23">
+        <f>G14+G7</f>
+        <v>12</v>
+      </c>
+      <c r="H15" s="9">
+        <f>H14+H7+2</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="9">
+        <f>I14+I7</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <f>J14+J7</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="23">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="23">
+        <f>4*G7+G10+G16</f>
+        <v>35</v>
+      </c>
+      <c r="H17" s="23">
+        <f>4*H7+H10+H16+1</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <f>4*I7+I10+I16</f>
+        <v>8</v>
+      </c>
+      <c r="J17" s="23">
+        <f>4*J7+J10+J16</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>8</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="23">
+        <f>5*G7+G19</f>
+        <v>20</v>
+      </c>
+      <c r="H20" s="23">
+        <f>5*H7+H19+2</f>
+        <v>10</v>
+      </c>
+      <c r="I20" s="23">
+        <f>5*I7+I19</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
+        <f>5*J7+J19</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="23">
+        <f>G15+G20+G7</f>
+        <v>36</v>
+      </c>
+      <c r="H21" s="23">
+        <f>H15+H20+H7+1</f>
+        <v>13</v>
+      </c>
+      <c r="I21" s="23">
+        <f>I15+I20+I7</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="23">
+        <f>J15+J20+J7</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="23">
+        <f>G21+3*G10+G9</f>
+        <v>72</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" ref="H22:J22" si="1">H21+3*H10+H9</f>
         <v>15</v>
       </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="5" t="s">
+      <c r="I22" s="23">
+        <f>I21+3*I10+I9</f>
         <v>25</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="J22" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="23">
+        <f>G8+6*G7+2*G11+G18</f>
+        <v>52</v>
+      </c>
+      <c r="H23" s="23">
+        <f>H8+6*H7+2*H11+H18+1</f>
+        <v>19</v>
+      </c>
+      <c r="I23" s="23">
+        <f>I8+6*I7+2*I11+I18+16</f>
+        <v>32</v>
+      </c>
+      <c r="J23" s="23">
+        <f>J8+6*J7+2*J11+J18</f>
         <v>2</v>
       </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="4">
-        <v>8</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="4">
-        <v>7</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="4">
-        <v>7</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="8"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="8"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="8"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="8"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="8"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G5:H5"/>
+  <mergeCells count="3">
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H10:H11" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/relay_count.xlsx
+++ b/docs/relay_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Documents\_projects\Clackertron\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicsc\Documents\_projects\Clackertron\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389829E1-E98F-4D20-93E9-4816968F454D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E03502-F040-44D7-A8BF-97510D228A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>DPDT</t>
   </si>
@@ -126,13 +126,16 @@
     <t>italic mode == unsure/recheck</t>
   </si>
   <si>
-    <t>HIV design</t>
-  </si>
-  <si>
     <t>fanout of bitwise &amp; is 1</t>
   </si>
   <si>
     <t>ALU+REG</t>
+  </si>
+  <si>
+    <t>P-REG</t>
+  </si>
+  <si>
+    <t>HiV design</t>
   </si>
 </sst>
 </file>
@@ -333,15 +336,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,12 +346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,6 +369,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,22 +691,22 @@
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="14" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="15"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -713,11 +716,11 @@
         <v>7</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="24"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="19"/>
+      <c r="I5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="9" t="s">
         <v>29</v>
       </c>
@@ -729,25 +732,25 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -759,14 +762,14 @@
       <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="18">
         <v>4</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -779,30 +782,30 @@
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="18">
         <v>4</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="18">
         <v>0</v>
       </c>
       <c r="H9" s="9">
         <v>2</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="20">
         <v>1</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="21">
         <v>0</v>
       </c>
       <c r="K9" s="9"/>
@@ -814,7 +817,7 @@
       <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="18">
         <f>G7+8</f>
         <v>12</v>
       </c>
@@ -822,11 +825,11 @@
         <f>H7</f>
         <v>0</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="20">
         <f>I7+8</f>
         <v>8</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="21">
         <f>J7</f>
         <v>0</v>
       </c>
@@ -839,7 +842,7 @@
       <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="18">
         <f>G10</f>
         <v>12</v>
       </c>
@@ -847,11 +850,11 @@
         <f>H10+1</f>
         <v>1</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="20">
         <f>I10</f>
         <v>8</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="21">
         <f>J10+1</f>
         <v>1</v>
       </c>
@@ -861,17 +864,17 @@
       <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="21"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="9"/>
       <c r="L12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -881,24 +884,24 @@
       <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="18">
         <v>1</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="21"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="9"/>
       <c r="L13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="18">
         <f>8*G13</f>
         <v>8</v>
       </c>
@@ -911,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" ref="I14:J14" si="0">8*J13</f>
+        <f t="shared" ref="J14" si="0">8*J13</f>
         <v>0</v>
       </c>
       <c r="K14" s="9"/>
@@ -920,7 +923,7 @@
       <c r="F15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="18">
         <f>G14+G7</f>
         <v>12</v>
       </c>
@@ -942,14 +945,14 @@
       <c r="F16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="18">
         <v>7</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="21"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="9">
         <v>28</v>
       </c>
@@ -958,19 +961,19 @@
       <c r="F17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="18">
         <f>4*G7+G10+G16</f>
         <v>35</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="18">
         <f>4*H7+H10+H16+1</f>
         <v>1</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="18">
         <f>4*I7+I10+I16</f>
         <v>8</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="18">
         <f>4*J7+J10+J16</f>
         <v>0</v>
       </c>
@@ -980,14 +983,14 @@
       <c r="F18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="18">
         <v>0</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="21"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="9">
         <v>62</v>
       </c>
@@ -996,58 +999,58 @@
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="18">
         <v>0</v>
       </c>
       <c r="H19" s="9">
         <v>8</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="21"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="18">
         <f>5*G7+G19</f>
         <v>20</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="18">
         <f>5*H7+H19+2</f>
         <v>10</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="18">
         <f>5*I7+I19</f>
         <v>0</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="18">
         <f>5*J7+J19</f>
         <v>0</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="18">
         <f>G15+G20+G7</f>
         <v>36</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="18">
         <f>H15+H20+H7+1</f>
         <v>13</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="18">
         <f>I15+I20+I7</f>
         <v>0</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="18">
         <f>J15+J20+J7</f>
         <v>0</v>
       </c>
@@ -1055,21 +1058,21 @@
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="23">
+        <v>34</v>
+      </c>
+      <c r="G22" s="18">
         <f>G21+3*G10+G9</f>
         <v>72</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="18">
         <f t="shared" ref="H22:J22" si="1">H21+3*H10+H9</f>
         <v>15</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="18">
         <f>I21+3*I10+I9</f>
         <v>25</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1079,78 +1082,94 @@
       <c r="F23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="18">
         <f>G8+6*G7+2*G11+G18</f>
         <v>52</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="18">
         <f>H8+6*H7+2*H11+H18+1</f>
         <v>19</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="18">
         <f>I8+6*I7+2*I11+I18+16</f>
         <v>32</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="18">
         <f>J8+6*J7+2*J11+J18</f>
         <v>2</v>
       </c>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F24" s="8"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="9"/>
+      <c r="F24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="18">
+        <f>2+7</f>
+        <v>9</v>
+      </c>
+      <c r="H24" s="9">
+        <f>11+0</f>
+        <v>11</v>
+      </c>
+      <c r="I24" s="18">
+        <f>0+7</f>
+        <v>7</v>
+      </c>
+      <c r="J24" s="16">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F25" s="8"/>
-      <c r="G25" s="23"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="21"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="16"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F26" s="8"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="21"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F27" s="8"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="21"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F28" s="8"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="21"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="16"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F29" s="8"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="21"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F30" s="8"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="21"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="9"/>
     </row>
   </sheetData>
